--- a/Lab8/Lab8 Monday.xlsx
+++ b/Lab8/Lab8 Monday.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="44">
   <si>
     <t>Table 8.1: Rule for Assignment of Brand Labels</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,9 +104,6 @@
     <t>Observation</t>
   </si>
   <si>
-    <t>Table 8.4: Order of Presentation and Preference(food)</t>
-  </si>
-  <si>
     <t>Table 8.4: Order of Presentation and Preference(drink)</t>
   </si>
   <si>
@@ -119,15 +116,9 @@
     <t>Number of participants preferring Z</t>
   </si>
   <si>
-    <t>Total number of participants n</t>
-  </si>
-  <si>
     <t># of participants preferring bargain</t>
   </si>
   <si>
-    <t>proportion preferring bargain</t>
-  </si>
-  <si>
     <t>Bargain,publix</t>
   </si>
   <si>
@@ -141,13 +132,97 @@
   </si>
   <si>
     <t>Y = First Brand presented    Z = Second Brand presented</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>Publix and Mott's apple juice</t>
+  </si>
+  <si>
+    <t>np-hat</t>
+  </si>
+  <si>
+    <r>
+      <t>proportion preferring bargain(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p-hat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Total number of participants</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> n</t>
+    </r>
+  </si>
+  <si>
+    <t>n*(1-p-hat)</t>
+  </si>
+  <si>
+    <t>p-null</t>
+  </si>
+  <si>
+    <t>se0</t>
+  </si>
+  <si>
+    <t>look table to reject</t>
+  </si>
+  <si>
+    <t>|Z| &lt; 1.96</t>
+  </si>
+  <si>
+    <t>do not reject</t>
+  </si>
+  <si>
+    <t>p-hat-1.96*se0</t>
+  </si>
+  <si>
+    <t>confi interval</t>
+  </si>
+  <si>
+    <t>p-hat+1.96*se0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="0.000%"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +240,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -202,10 +284,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -227,18 +311,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -611,14 +703,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" customWidth="1"/>
     <col min="9" max="9" width="4" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
@@ -629,17 +722,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14">
-      <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
       <c r="J2" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -650,14 +743,14 @@
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
       <c r="J3" s="3" t="s">
         <v>12</v>
       </c>
@@ -693,12 +786,14 @@
         <v>1</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="2">
@@ -719,12 +814,14 @@
         <v>1</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="5"/>
     </row>
     <row r="6" spans="2:14">
       <c r="J6" s="3">
@@ -734,12 +831,14 @@
         <v>0</v>
       </c>
       <c r="L6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="2:14">
       <c r="B7" s="8" t="s">
@@ -760,12 +859,14 @@
         <v>0</v>
       </c>
       <c r="L7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="2:14">
       <c r="J8" s="3">
@@ -775,23 +876,25 @@
         <v>0</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
       <c r="J9" s="3">
         <v>6</v>
       </c>
@@ -799,25 +902,27 @@
         <v>1</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
       <c r="J10" s="3">
         <v>7</v>
       </c>
@@ -825,25 +930,27 @@
         <v>1</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="C11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
       <c r="J11" s="3">
         <v>8</v>
       </c>
@@ -851,25 +958,27 @@
         <v>0</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N11" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="C12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
       <c r="J12" s="3">
         <v>9</v>
       </c>
@@ -877,12 +986,14 @@
         <v>1</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="2:14">
       <c r="J13" s="3">
@@ -892,23 +1003,25 @@
         <v>1</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
       <c r="J14" s="3">
         <v>11</v>
       </c>
@@ -916,25 +1029,27 @@
         <v>0</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N14" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="2:14" ht="30">
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
       <c r="J15" s="3">
         <v>12</v>
       </c>
@@ -942,19 +1057,21 @@
         <v>1</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="2:14">
       <c r="B16" s="2">
         <v>0</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>31</v>
+      <c r="C16" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -968,12 +1085,14 @@
         <v>1</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N16" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="2:14">
       <c r="B17" s="2">
@@ -994,12 +1113,14 @@
         <v>1</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N17" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="2:14">
       <c r="J18" s="3">
@@ -1009,12 +1130,14 @@
         <v>0</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N18" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="2:14">
       <c r="B19" s="8" t="s">
@@ -1032,20 +1155,24 @@
         <v>0</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N19" s="5"/>
     </row>
     <row r="20" spans="2:14">
       <c r="B20" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="E20" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="J20" s="3">
@@ -1055,22 +1182,26 @@
         <v>1</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N20" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="2:14">
       <c r="B21" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="E21" s="9">
+        <v>13</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
       <c r="J21" s="3">
         <v>18</v>
       </c>
@@ -1078,22 +1209,26 @@
         <v>0</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N21" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="2:14">
       <c r="B22" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="E22" s="9">
+        <v>22</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
       <c r="J22" s="3">
         <v>19</v>
       </c>
@@ -1101,22 +1236,27 @@
         <v>1</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N22" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="2:14">
       <c r="B23" s="8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="E23" s="9">
+        <f>E21+E22</f>
+        <v>35</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
       <c r="J23" s="3">
         <v>20</v>
       </c>
@@ -1124,22 +1264,26 @@
         <v>1</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N23" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="2:14">
       <c r="B24" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+      <c r="E24" s="9">
+        <v>13</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
       <c r="J24" s="3">
         <v>21</v>
       </c>
@@ -1147,22 +1291,27 @@
         <v>0</v>
       </c>
       <c r="L24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N24" s="5"/>
     </row>
     <row r="25" spans="2:14">
       <c r="B25" s="8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="E25" s="12">
+        <f>E24/E23</f>
+        <v>0.37142857142857144</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
       <c r="J25" s="3">
         <v>22</v>
       </c>
@@ -1170,14 +1319,23 @@
         <v>0</v>
       </c>
       <c r="L25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N25" s="5"/>
     </row>
     <row r="26" spans="2:14">
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="13">
+        <f>E23*E25</f>
+        <v>13</v>
+      </c>
       <c r="J26" s="3">
         <v>23</v>
       </c>
@@ -1185,14 +1343,23 @@
         <v>0</v>
       </c>
       <c r="L26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M26" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N26" s="5"/>
     </row>
     <row r="27" spans="2:14">
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="13">
+        <f>E23*(1-E25)</f>
+        <v>22</v>
+      </c>
       <c r="J27" s="3">
         <v>24</v>
       </c>
@@ -1200,68 +1367,73 @@
         <v>1</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28">
+        <v>0.5</v>
+      </c>
+      <c r="J28" s="3">
+        <v>25</v>
+      </c>
+      <c r="K28" s="7">
+        <v>1</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N27" s="5"/>
-    </row>
-    <row r="28" spans="2:14">
-      <c r="B28" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="J28" s="3">
-        <v>25</v>
-      </c>
-      <c r="K28" s="7">
-        <v>1</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M28" s="7" t="s">
+    </row>
+    <row r="29" spans="2:14">
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29">
+        <f>SQRT(E25*(1-E25)/E23)</f>
+        <v>8.1673459188772321E-2</v>
+      </c>
+      <c r="J29" s="3">
+        <v>26</v>
+      </c>
+      <c r="K29" s="7">
+        <v>1</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N28" s="5"/>
-    </row>
-    <row r="29" spans="2:14">
-      <c r="B29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="J29" s="3">
-        <v>26</v>
-      </c>
-      <c r="K29" s="7">
-        <v>1</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N29" s="5"/>
     </row>
     <row r="30" spans="2:14">
-      <c r="B30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="14">
+        <f>(E25-E28)/E29</f>
+        <v>-1.5742130901332427</v>
+      </c>
+      <c r="F30" t="s">
+        <v>38</v>
+      </c>
       <c r="J30" s="3">
         <v>27</v>
       </c>
@@ -1269,22 +1441,22 @@
         <v>0</v>
       </c>
       <c r="L30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M30" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N30" s="5"/>
     </row>
     <row r="31" spans="2:14">
-      <c r="B31" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" t="s">
+        <v>40</v>
+      </c>
       <c r="J31" s="3">
         <v>28</v>
       </c>
@@ -1292,22 +1464,26 @@
         <v>1</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N31" s="5"/>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="15">
+        <f>E25-1.96*E29</f>
+        <v>0.2113485914185777</v>
+      </c>
       <c r="J32" s="3">
         <v>29</v>
       </c>
@@ -1315,22 +1491,23 @@
         <v>1</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N32" s="5"/>
-    </row>
-    <row r="33" spans="2:14">
-      <c r="B33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="4:14">
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="15">
+        <f>E25+1.96*E29</f>
+        <v>0.53150855143856512</v>
+      </c>
       <c r="J33" s="3">
         <v>30</v>
       </c>
@@ -1338,22 +1515,16 @@
         <v>0</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N33" s="5"/>
-    </row>
-    <row r="34" spans="2:14">
-      <c r="B34" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="4:14">
       <c r="J34" s="3">
         <v>31</v>
       </c>
@@ -1361,14 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N34" s="5"/>
-    </row>
-    <row r="35" spans="2:14">
+        <v>25</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="4:14">
       <c r="J35" s="3">
         <v>32</v>
       </c>
@@ -1376,14 +1549,16 @@
         <v>1</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N35" s="5"/>
-    </row>
-    <row r="36" spans="2:14">
+        <v>26</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="4:14">
       <c r="J36" s="3">
         <v>33</v>
       </c>
@@ -1391,14 +1566,16 @@
         <v>0</v>
       </c>
       <c r="L36" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M36" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N36" s="5"/>
-    </row>
-    <row r="37" spans="2:14">
+    </row>
+    <row r="37" spans="4:14">
       <c r="J37" s="3">
         <v>34</v>
       </c>
@@ -1406,14 +1583,16 @@
         <v>1</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M37" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N37" s="5"/>
-    </row>
-    <row r="38" spans="2:14">
+    </row>
+    <row r="38" spans="4:14">
       <c r="J38" s="3">
         <v>35</v>
       </c>
@@ -1421,14 +1600,16 @@
         <v>1</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N38" s="5"/>
-    </row>
-    <row r="39" spans="2:14">
+        <v>26</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="4:14">
       <c r="J39" s="3">
         <v>36</v>
       </c>
@@ -1436,14 +1617,14 @@
         <v>1</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N39" s="5"/>
     </row>
-    <row r="40" spans="2:14">
+    <row r="40" spans="4:14">
       <c r="J40" s="3">
         <v>37</v>
       </c>
@@ -1451,14 +1632,14 @@
         <v>0</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N40" s="5"/>
     </row>
-    <row r="41" spans="2:14">
+    <row r="41" spans="4:14">
       <c r="J41" s="3">
         <v>38</v>
       </c>
@@ -1466,14 +1647,14 @@
         <v>0</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N41" s="5"/>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="4:14">
       <c r="J42" s="3">
         <v>39</v>
       </c>
@@ -1481,14 +1662,14 @@
         <v>1</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N42" s="5"/>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" spans="4:14">
       <c r="J43" s="3">
         <v>40</v>
       </c>
@@ -1496,14 +1677,14 @@
         <v>0</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N43" s="5"/>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="4:14">
       <c r="J44" s="3">
         <v>41</v>
       </c>
@@ -1511,14 +1692,14 @@
         <v>0</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N44" s="5"/>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="4:14">
       <c r="J45" s="3">
         <v>42</v>
       </c>
@@ -1526,14 +1707,14 @@
         <v>1</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N45" s="5"/>
     </row>
-    <row r="46" spans="2:14">
+    <row r="46" spans="4:14">
       <c r="J46" s="3">
         <v>43</v>
       </c>
@@ -1541,14 +1722,14 @@
         <v>0</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N46" s="5"/>
     </row>
-    <row r="47" spans="2:14">
+    <row r="47" spans="4:14">
       <c r="J47" s="3">
         <v>44</v>
       </c>
@@ -1556,14 +1737,14 @@
         <v>1</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N47" s="5"/>
     </row>
-    <row r="48" spans="2:14">
+    <row r="48" spans="4:14">
       <c r="J48" s="3">
         <v>45</v>
       </c>
@@ -1571,10 +1752,10 @@
         <v>1</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N48" s="5"/>
     </row>
@@ -1586,10 +1767,10 @@
         <v>1</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N49" s="5"/>
     </row>
@@ -1601,10 +1782,10 @@
         <v>1</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N50" s="5"/>
     </row>
@@ -1616,45 +1797,19 @@
         <v>0</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N51" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E29:G29"/>
+  <mergeCells count="27">
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="J2:N2"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B29:D29"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:H4"/>
@@ -1665,6 +1820,19 @@
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
